--- a/trading_data/total_pl.xlsx
+++ b/trading_data/total_pl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\trade_analysis\trading_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1D936F-DC48-4801-A7CC-6E121A3E3427}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225D6BAC-FCDE-4BC9-B5EC-8488A78D87C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Monthly DAS Fee ($150)</t>
+  </si>
+  <si>
+    <t>Monthly Profits</t>
+  </si>
+  <si>
+    <t>Daily Balance</t>
   </si>
 </sst>
 </file>
@@ -423,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CEB993-576A-4484-943F-5B7E4DB00662}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,9 +441,11 @@
     <col min="2" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +461,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43964</v>
       </c>
@@ -471,13 +485,20 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>SUM(C2:C2)</f>
+        <v>-21</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43965</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B21" si="1">D2</f>
+        <f t="shared" ref="B3:B22" si="1">D2</f>
         <v>1479</v>
       </c>
       <c r="C3" s="2">
@@ -490,8 +511,15 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f>SUM(C2:C3)</f>
+        <v>-17.57</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43966</v>
       </c>
@@ -509,8 +537,15 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f>SUM(C2:C4)</f>
+        <v>-40.980000000000004</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43970</v>
       </c>
@@ -528,8 +563,15 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f>SUM(C2:C5)</f>
+        <v>27.019999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43971</v>
       </c>
@@ -547,8 +589,15 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f>SUM(C2:C6)</f>
+        <v>127.27</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43972</v>
       </c>
@@ -566,8 +615,15 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f>SUM(C2:C7)</f>
+        <v>138.01999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43977</v>
       </c>
@@ -585,8 +641,15 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>SUM(C2:C8)</f>
+        <v>111.51999999999998</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43979</v>
       </c>
@@ -604,8 +667,15 @@
       <c r="E9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f>SUM(C2:C9)</f>
+        <v>98.199999999999989</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43973</v>
       </c>
@@ -623,8 +693,15 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>SUM(C2:C10)</f>
+        <v>139.01999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43983</v>
       </c>
@@ -642,8 +719,15 @@
       <c r="E11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f>SUM(C2:C11)</f>
+        <v>-115.98000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43984</v>
       </c>
@@ -661,8 +745,15 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>SUM(C2:C12)</f>
+        <v>-374.08000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43985</v>
       </c>
@@ -680,8 +771,15 @@
       <c r="E13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f>SUM(C2:C13)</f>
+        <v>-399.08000000000004</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43986</v>
       </c>
@@ -699,8 +797,15 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f>SUM(C2:C14)</f>
+        <v>-356.87000000000006</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43987</v>
       </c>
@@ -718,8 +823,15 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f>SUM(C2:C15)</f>
+        <v>-241.56000000000006</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43990</v>
       </c>
@@ -737,8 +849,15 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f>SUM(C2:C16)</f>
+        <v>-252.06000000000006</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43991</v>
       </c>
@@ -756,8 +875,15 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>SUM(C2:C17)</f>
+        <v>-255.06000000000006</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43986</v>
       </c>
@@ -775,8 +901,15 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f>SUM(C2:C18)</f>
+        <v>-221.22000000000006</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43993</v>
       </c>
@@ -794,8 +927,15 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f>SUM(C2:C19)</f>
+        <v>-203.91000000000005</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43992</v>
       </c>
@@ -813,8 +953,15 @@
       <c r="E20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f>SUM(C2:C20)</f>
+        <v>-253.53000000000006</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43993</v>
       </c>
@@ -832,110 +979,197 @@
       <c r="E21">
         <v>-150</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f>SUM(C2:C21)</f>
+        <v>-230.99000000000007</v>
+      </c>
+      <c r="G21">
+        <v>1119.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>1119.01</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="D22">
+        <f>B22+C22+E22</f>
+        <v>1147.51</v>
+      </c>
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f>SUM(C2:C22)</f>
+        <v>-202.49000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42">
         <v>-150</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C21">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="C2:C22">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -943,7 +1177,7 @@
         <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -955,7 +1189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E21">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -965,7 +1199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B21">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -977,6 +1211,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E41">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E42">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/trading_data/total_pl.xlsx
+++ b/trading_data/total_pl.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\trade_analysis\trading_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225D6BAC-FCDE-4BC9-B5EC-8488A78D87C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63C2E4-7D4D-4A90-8B45-D64B015DBB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
+    <workbookView xWindow="810" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +57,21 @@
   </si>
   <si>
     <t>Daily Balance</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Starting Balance</t>
+  </si>
+  <si>
+    <t>Weekly_pl</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Monthly_pl</t>
   </si>
 </sst>
 </file>
@@ -431,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CEB993-576A-4484-943F-5B7E4DB00662}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,28 +1027,83 @@
         <f>SUM(C2:C22)</f>
         <v>-202.49000000000007</v>
       </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B23">
+        <v>1147.51</v>
+      </c>
+      <c r="C23" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D23">
+        <f>B23+C23+E23</f>
+        <v>1154.01</v>
+      </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
+        <f>SUM(C2:C23)</f>
+        <v>-195.99000000000007</v>
+      </c>
+      <c r="G23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B24">
+        <v>1154.01</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-46.31</v>
+      </c>
+      <c r="D24">
+        <f>B24+C24</f>
+        <v>1107.7</v>
+      </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
+        <f>SUM(C2:C24)</f>
+        <v>-242.30000000000007</v>
+      </c>
+      <c r="G24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B25">
+        <f>B24+C24</f>
+        <v>1107.7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-63.28</v>
+      </c>
+      <c r="D25">
+        <f>C25+B25</f>
+        <v>1044.42</v>
+      </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
+        <f>SUM(C2:C25)</f>
+        <v>-305.58000000000004</v>
+      </c>
+      <c r="G25">
         <v>0</v>
       </c>
     </row>
@@ -1168,7 +1241,27 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C22">
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E21">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -1177,6 +1270,8 @@
         <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B21">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1188,7 +1283,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E21">
+  <conditionalFormatting sqref="E22:E41">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -1198,7 +1293,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
+  <conditionalFormatting sqref="B22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1210,30 +1305,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E41">
+  <conditionalFormatting sqref="B1:B24 B27:B1048576">
     <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1245,7 +1318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1255,7 +1328,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E42">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1264,6 +1337,95 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B25 B27:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E32307-8E2A-4151-A74C-676206CB5853}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC89E06C-DDA0-4159-AA75-1FBB4DCCF621}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trading_data/total_pl.xlsx
+++ b/trading_data/total_pl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\trade_analysis\trading_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A63C2E4-7D4D-4A90-8B45-D64B015DBB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFE0C2-D2AA-4AB8-B5CB-89A36C08FB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +71,9 @@
   </si>
   <si>
     <t>Monthly_pl</t>
+  </si>
+  <si>
+    <t>number of trades taken</t>
   </si>
 </sst>
 </file>
@@ -126,12 +128,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -447,23 +450,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CEB993-576A-4484-943F-5B7E4DB00662}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="12" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,12 +490,15 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43964</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1500</v>
       </c>
       <c r="C2" s="2">
@@ -510,12 +518,15 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43965</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <f t="shared" ref="B3:B22" si="1">D2</f>
         <v>1479</v>
       </c>
@@ -536,12 +547,15 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43966</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <f t="shared" si="1"/>
         <v>1482.43</v>
       </c>
@@ -562,12 +576,15 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43970</v>
-      </c>
-      <c r="B5">
+        <v>43969</v>
+      </c>
+      <c r="B5" s="5">
         <f t="shared" si="1"/>
         <v>1459.02</v>
       </c>
@@ -588,12 +605,15 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43971</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <f t="shared" si="1"/>
         <v>1527.02</v>
       </c>
@@ -614,12 +634,15 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43972</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <f t="shared" si="1"/>
         <v>1627.27</v>
       </c>
@@ -640,12 +663,15 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43977</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <f t="shared" si="1"/>
         <v>1638.02</v>
       </c>
@@ -666,12 +692,15 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43979</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <f t="shared" si="1"/>
         <v>1611.52</v>
       </c>
@@ -692,12 +721,15 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43973</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <f t="shared" si="1"/>
         <v>1598.2</v>
       </c>
@@ -718,12 +750,15 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43983</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <f t="shared" si="1"/>
         <v>1639.02</v>
       </c>
@@ -744,12 +779,15 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43984</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <f t="shared" si="1"/>
         <v>1384.02</v>
       </c>
@@ -770,12 +808,15 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43985</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <f t="shared" si="1"/>
         <v>1125.92</v>
       </c>
@@ -796,12 +837,15 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43986</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <f t="shared" si="1"/>
         <v>1100.92</v>
       </c>
@@ -822,12 +866,15 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43987</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <f t="shared" si="1"/>
         <v>1143.1300000000001</v>
       </c>
@@ -848,12 +895,15 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43990</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <f t="shared" si="1"/>
         <v>1258.44</v>
       </c>
@@ -874,12 +924,15 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43991</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <f t="shared" si="1"/>
         <v>1247.94</v>
       </c>
@@ -900,12 +953,15 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43986</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <f t="shared" si="1"/>
         <v>1244.94</v>
       </c>
@@ -926,12 +982,15 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43993</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <f t="shared" si="1"/>
         <v>1278.78</v>
       </c>
@@ -952,12 +1011,15 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43992</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <f t="shared" si="1"/>
         <v>1296.0899999999999</v>
       </c>
@@ -978,12 +1040,15 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43993</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <f t="shared" si="1"/>
         <v>1246.47</v>
       </c>
@@ -1004,12 +1069,15 @@
       <c r="G21">
         <v>1119.01</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43994</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <f t="shared" si="1"/>
         <v>1119.01</v>
       </c>
@@ -1030,12 +1098,15 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43997</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>1147.51</v>
       </c>
       <c r="C23" s="2">
@@ -1055,12 +1126,15 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43998</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>1154.01</v>
       </c>
       <c r="C24" s="2">
@@ -1080,13 +1154,16 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44046</v>
       </c>
-      <c r="B25">
-        <f>B24+C24</f>
+      <c r="B25" s="5">
+        <f t="shared" ref="B25:B31" si="2">B24+C24</f>
         <v>1107.7</v>
       </c>
       <c r="C25" s="2">
@@ -1106,56 +1183,182 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="2"/>
+        <v>1044.42</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-16.89</v>
+      </c>
+      <c r="D26">
+        <f>C26+B26</f>
+        <v>1027.53</v>
+      </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C26)</f>
+        <v>-322.47000000000003</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="2"/>
+        <v>1027.53</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-63.89</v>
+      </c>
+      <c r="D27">
+        <f>C27+B27</f>
+        <v>963.64</v>
+      </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C27)</f>
+        <v>-386.36</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B28" s="5">
+        <f t="shared" si="2"/>
+        <v>963.64</v>
+      </c>
+      <c r="C28" s="2">
+        <v>38.28</v>
+      </c>
+      <c r="D28">
+        <f>C28+B28</f>
+        <v>1001.92</v>
+      </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C28)</f>
+        <v>-348.08000000000004</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B29" s="5">
+        <f t="shared" si="2"/>
+        <v>1001.92</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-26.68</v>
+      </c>
+      <c r="D29">
+        <f>C29+B29</f>
+        <v>975.24</v>
+      </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C29)</f>
+        <v>-374.76000000000005</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B30" s="5">
+        <f t="shared" si="2"/>
+        <v>975.24</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D30">
+        <f>C30+B30</f>
+        <v>995.34</v>
+      </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C30)</f>
+        <v>-354.66</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="2"/>
+        <v>995.34</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-56.55</v>
+      </c>
+      <c r="D31">
+        <f>C31+B31</f>
+        <v>938.79000000000008</v>
+      </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(C2:C31)</f>
+        <v>-411.21000000000004</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>0</v>
       </c>
@@ -1241,37 +1444,231 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C25">
+  <conditionalFormatting sqref="C2:C31">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E21">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B21">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E41">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B24 B31:B1048576">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E42">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B25 B31:B1048576">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B26 B31:B1048576">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B28 B31:B1048576">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B12">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E21">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1283,29 +1680,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E41">
+  <conditionalFormatting sqref="B29">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B24 B27:B1048576">
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1317,47 +1712,67 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+  <conditionalFormatting sqref="B30">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E42">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B25 B27:B1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/trading_data/total_pl.xlsx
+++ b/trading_data/total_pl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\trade_analysis\trading_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFE0C2-D2AA-4AB8-B5CB-89A36C08FB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262AABE1-427C-4BAC-AD01-AC2AE7211B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trading_data/total_pl.xlsx
+++ b/trading_data/total_pl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doug\Desktop\trade_analysis\trading_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262AABE1-427C-4BAC-AD01-AC2AE7211B9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6668145A-CD5D-49D0-9131-587805052B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74563E13-67B1-478E-A46B-1DAF4D8296CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CEB993-576A-4484-943F-5B7E4DB00662}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,14 +1163,14 @@
         <v>44046</v>
       </c>
       <c r="B25" s="5">
-        <f t="shared" ref="B25:B31" si="2">B24+C24</f>
+        <f t="shared" ref="B25:B32" si="2">B24+C24</f>
         <v>1107.7</v>
       </c>
       <c r="C25" s="2">
         <v>-63.28</v>
       </c>
       <c r="D25">
-        <f>C25+B25</f>
+        <f t="shared" ref="D25:D32" si="3">C25+B25</f>
         <v>1044.42</v>
       </c>
       <c r="E25">
@@ -1199,7 +1199,7 @@
         <v>-16.89</v>
       </c>
       <c r="D26">
-        <f>C26+B26</f>
+        <f t="shared" si="3"/>
         <v>1027.53</v>
       </c>
       <c r="E26">
@@ -1228,7 +1228,7 @@
         <v>-63.89</v>
       </c>
       <c r="D27">
-        <f>C27+B27</f>
+        <f t="shared" si="3"/>
         <v>963.64</v>
       </c>
       <c r="E27">
@@ -1257,7 +1257,7 @@
         <v>38.28</v>
       </c>
       <c r="D28">
-        <f>C28+B28</f>
+        <f t="shared" si="3"/>
         <v>1001.92</v>
       </c>
       <c r="E28">
@@ -1286,7 +1286,7 @@
         <v>-26.68</v>
       </c>
       <c r="D29">
-        <f>C29+B29</f>
+        <f t="shared" si="3"/>
         <v>975.24</v>
       </c>
       <c r="E29">
@@ -1312,7 +1312,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="D30">
-        <f>C30+B30</f>
+        <f t="shared" si="3"/>
         <v>995.34</v>
       </c>
       <c r="E30">
@@ -1341,7 +1341,7 @@
         <v>-56.55</v>
       </c>
       <c r="D31">
-        <f>C31+B31</f>
+        <f t="shared" si="3"/>
         <v>938.79000000000008</v>
       </c>
       <c r="E31">
@@ -1359,11 +1359,32 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B32" s="5">
+        <f t="shared" si="2"/>
+        <v>938.79000000000008</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-57</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="3"/>
+        <v>881.79000000000008</v>
+      </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <f>SUM(C2:C32)</f>
+        <v>-468.21000000000004</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">
@@ -1444,7 +1465,49 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C31">
+  <conditionalFormatting sqref="C2:C32">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E21">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B21">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E41">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -1453,6 +1516,8 @@
         <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -1464,83 +1529,75 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E21">
+  <conditionalFormatting sqref="B1:B24 B31:B1048576">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E41">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B24 B31:B1048576">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E42">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B25 B31:B1048576">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B26 B31:B1048576">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E42">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -1552,7 +1609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B25 B31:B1048576">
+  <conditionalFormatting sqref="B28">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -1564,31 +1621,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B26 B31:B1048576">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28">
+  <conditionalFormatting sqref="B1:B28 B31:B1048576">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -1599,19 +1632,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B28 B31:B1048576">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1621,18 +1642,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1644,54 +1701,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="B29">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1701,7 +1722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1713,17 +1734,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1745,6 +1766,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1756,7 +1809,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31">
+  <conditionalFormatting sqref="B32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
